--- a/lection#4Collections/MIkhail Bondar - Home Task Collections.xlsx
+++ b/lection#4Collections/MIkhail Bondar - Home Task Collections.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Замер производительности</t>
   </si>
@@ -264,43 +264,6 @@
   </si>
   <si>
     <t>TreeMap</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">+/- </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">only first in root</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
   </si>
   <si>
     <t>ConcurrentHashMap</t>
@@ -359,12 +322,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -432,7 +407,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,6 +429,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,6 +462,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -485,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +700,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -665,7 +712,7 @@
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -674,7 +721,7 @@
       <c r="H23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -682,7 +729,7 @@
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -694,7 +741,7 @@
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -703,7 +750,7 @@
       <c r="H24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -711,7 +758,7 @@
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -723,7 +770,7 @@
       <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -732,7 +779,7 @@
       <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -740,7 +787,7 @@
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -752,8 +799,8 @@
       <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>32</v>
+      <c r="F26" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>36</v>
@@ -761,7 +808,7 @@
       <c r="H26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -769,8 +816,8 @@
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>32</v>
@@ -781,8 +828,8 @@
       <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>32</v>
+      <c r="F27" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>36</v>
@@ -790,7 +837,7 @@
       <c r="H27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -798,7 +845,7 @@
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -810,7 +857,7 @@
       <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -819,14 +866,14 @@
       <c r="H28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>33</v>
+      <c r="I28" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -835,13 +882,13 @@
       <c r="D30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -852,7 +899,7 @@
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -861,25 +908,25 @@
       <c r="D31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>33</v>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>33</v>
@@ -887,14 +934,14 @@
       <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>45</v>
+      <c r="E32" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>32</v>
+      <c r="G32" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>33</v>
@@ -902,38 +949,38 @@
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/lection#4Collections/MIkhail Bondar - Home Task Collections.xlsx
+++ b/lection#4Collections/MIkhail Bondar - Home Task Collections.xlsx
@@ -322,18 +322,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -432,15 +426,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,7 +527,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/lection#4Collections/MIkhail Bondar - Home Task Collections.xlsx
+++ b/lection#4Collections/MIkhail Bondar - Home Task Collections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="396" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -159,10 +159,10 @@
     <t>Need comparator comparable</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <r>
@@ -322,7 +322,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +331,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF66"/>
+        <bgColor rgb="FF33FF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
-        <bgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FF66"/>
       </patternFill>
     </fill>
   </fills>
@@ -401,7 +413,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,7 +438,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +450,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,7 +477,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -493,7 +509,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -526,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,7 +722,7 @@
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -727,19 +743,19 @@
         <v>32</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>34</v>
@@ -752,122 +768,122 @@
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>33</v>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>32</v>
+      <c r="B26" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>33</v>
+      <c r="B27" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>32</v>
+        <v>32</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>32</v>
+      <c r="B28" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -882,7 +898,7 @@
       <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -893,87 +909,87 @@
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>32</v>
+      <c r="B31" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>32</v>
+      <c r="B32" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>33</v>
+        <v>33</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>32</v>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>47</v>
       </c>
     </row>
